--- a/sjsu_buildings.xlsx
+++ b/sjsu_buildings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikita.khatwani\Documents\SJSU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E7C0DA-D070-465A-98A8-1B5CB10670E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD5AE65-0C72-484C-BB6E-59FEB47E9731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F47F611C-57E4-4AEA-9334-5860ACFDABBC}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="sjsu_buildings_with NaNs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sjsu_buildings!$A$1:$M$93</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="213">
   <si>
     <t>id</t>
   </si>
@@ -668,6 +671,12 @@
   </si>
   <si>
     <t>Auditorium</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>West campus</t>
   </si>
 </sst>
 </file>
@@ -1671,20 +1680,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9C4EE4-A91E-4C42-82E3-87733447F5C3}">
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="91.109375" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1721,8 +1730,11 @@
       <c r="L1" s="4" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>25774609</v>
       </c>
@@ -1757,8 +1769,11 @@
       <c r="L2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>25774628</v>
       </c>
@@ -1793,8 +1808,11 @@
       <c r="L3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>25774647</v>
       </c>
@@ -1829,8 +1847,11 @@
       <c r="L4" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>25774674</v>
       </c>
@@ -1865,8 +1886,11 @@
       <c r="L5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>25774678</v>
       </c>
@@ -1901,8 +1925,11 @@
       <c r="L6" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>25774697</v>
       </c>
@@ -1937,8 +1964,11 @@
       <c r="L7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>25774723</v>
       </c>
@@ -1973,8 +2003,11 @@
       <c r="L8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>25774724</v>
       </c>
@@ -2009,8 +2042,11 @@
       <c r="L9" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>25774728</v>
       </c>
@@ -2048,8 +2084,11 @@
       <c r="L10" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>25774740</v>
       </c>
@@ -2087,8 +2126,11 @@
       <c r="L11" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>25774741</v>
       </c>
@@ -2123,8 +2165,11 @@
       <c r="L12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>25774742</v>
       </c>
@@ -2162,8 +2207,11 @@
       <c r="L13" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>25774754</v>
       </c>
@@ -2201,8 +2249,11 @@
       <c r="L14" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>25774755</v>
       </c>
@@ -2240,8 +2291,11 @@
       <c r="L15" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>25774762</v>
       </c>
@@ -2279,8 +2333,11 @@
       <c r="L16" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>25774763</v>
       </c>
@@ -2315,8 +2372,11 @@
       <c r="L17" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>25774765</v>
       </c>
@@ -2351,8 +2411,11 @@
       <c r="L18" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>25774768</v>
       </c>
@@ -2387,8 +2450,11 @@
       <c r="L19" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>25774770</v>
       </c>
@@ -2423,8 +2489,11 @@
       <c r="L20" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>25774784</v>
       </c>
@@ -2459,8 +2528,11 @@
       <c r="L21" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>25774796</v>
       </c>
@@ -2495,8 +2567,11 @@
       <c r="L22" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>25774806</v>
       </c>
@@ -2534,8 +2609,11 @@
       <c r="L23" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>25774831</v>
       </c>
@@ -2573,8 +2651,11 @@
       <c r="L24" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>25775903</v>
       </c>
@@ -2609,8 +2690,11 @@
       <c r="L25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25780815</v>
       </c>
@@ -2648,8 +2732,11 @@
       <c r="L26" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25790802</v>
       </c>
@@ -2684,8 +2771,11 @@
       <c r="L27" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>45727207</v>
       </c>
@@ -2720,8 +2810,11 @@
       <c r="L28" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>113102736</v>
       </c>
@@ -2756,8 +2849,11 @@
       <c r="L29" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M29" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>113102740</v>
       </c>
@@ -2792,8 +2888,11 @@
       <c r="L30" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>165325828</v>
       </c>
@@ -2828,8 +2927,11 @@
       <c r="L31" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>165325830</v>
       </c>
@@ -2853,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>165325831</v>
       </c>
@@ -2888,8 +2990,11 @@
       <c r="L33" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>165325833</v>
       </c>
@@ -2924,8 +3029,11 @@
       <c r="L34" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M34" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>165325835</v>
       </c>
@@ -2960,8 +3068,11 @@
       <c r="L35" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M35" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>165325837</v>
       </c>
@@ -2996,8 +3107,11 @@
       <c r="L36" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>165325839</v>
       </c>
@@ -3035,8 +3149,11 @@
       <c r="L37" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>338597437</v>
       </c>
@@ -3071,8 +3188,11 @@
       <c r="L38" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>357085071</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="L39" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>359270880</v>
       </c>
@@ -3143,8 +3266,11 @@
       <c r="L40" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>359270881</v>
       </c>
@@ -3179,8 +3305,11 @@
       <c r="L41" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>359599135</v>
       </c>
@@ -3215,8 +3344,11 @@
       <c r="L42" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>359599136</v>
       </c>
@@ -3251,8 +3383,11 @@
       <c r="L43" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>363686744</v>
       </c>
@@ -3290,8 +3425,11 @@
       <c r="L44" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>363686745</v>
       </c>
@@ -3326,8 +3464,11 @@
       <c r="L45" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>363686837</v>
       </c>
@@ -3365,8 +3506,11 @@
       <c r="L46" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M46" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>363686838</v>
       </c>
@@ -3401,8 +3545,11 @@
       <c r="L47" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>363686841</v>
       </c>
@@ -3437,8 +3584,11 @@
       <c r="L48" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M48" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>363686842</v>
       </c>
@@ -3476,8 +3626,11 @@
       <c r="L49" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>363686843</v>
       </c>
@@ -3512,8 +3665,11 @@
       <c r="L50" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>363686846</v>
       </c>
@@ -3551,8 +3707,11 @@
       <c r="L51" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M51" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>363686847</v>
       </c>
@@ -3590,8 +3749,11 @@
       <c r="L52" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>363686848</v>
       </c>
@@ -3629,8 +3791,11 @@
       <c r="L53" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>363686849</v>
       </c>
@@ -3665,8 +3830,11 @@
       <c r="L54" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>363686850</v>
       </c>
@@ -3701,8 +3869,11 @@
       <c r="L55" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M55" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>363686851</v>
       </c>
@@ -3737,8 +3908,11 @@
       <c r="L56" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>363686852</v>
       </c>
@@ -3773,8 +3947,11 @@
       <c r="L57" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>363686853</v>
       </c>
@@ -3809,8 +3986,11 @@
       <c r="L58" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>363686855</v>
       </c>
@@ -3845,8 +4025,11 @@
       <c r="L59" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>363686856</v>
       </c>
@@ -3881,8 +4064,11 @@
       <c r="L60" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>363686857</v>
       </c>
@@ -3917,8 +4103,11 @@
       <c r="L61" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M61" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>363686858</v>
       </c>
@@ -3953,8 +4142,11 @@
       <c r="L62" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>363686859</v>
       </c>
@@ -3983,11 +4175,17 @@
         <f>VLOOKUP(sjsu_buildings!B63,Sheet1!$A$2:$C$92,3,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="K63" t="s">
+        <v>188</v>
+      </c>
       <c r="L63" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>363686860</v>
       </c>
@@ -4022,8 +4220,11 @@
       <c r="L64" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>363686861</v>
       </c>
@@ -4058,8 +4259,11 @@
       <c r="L65" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>363686862</v>
       </c>
@@ -4094,8 +4298,11 @@
       <c r="L66" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>363686863</v>
       </c>
@@ -4130,8 +4337,11 @@
       <c r="L67" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>363686864</v>
       </c>
@@ -4155,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>363686865</v>
       </c>
@@ -4188,7 +4398,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>363686866</v>
       </c>
@@ -4223,8 +4433,11 @@
       <c r="L70" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>363686867</v>
       </c>
@@ -4259,8 +4472,11 @@
       <c r="L71" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>363686868</v>
       </c>
@@ -4295,8 +4511,11 @@
       <c r="L72" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M72" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>363686869</v>
       </c>
@@ -4331,8 +4550,11 @@
       <c r="L73" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>363686870</v>
       </c>
@@ -4367,8 +4589,11 @@
       <c r="L74" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M74" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>371657119</v>
       </c>
@@ -4406,8 +4631,11 @@
       <c r="L75" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M75" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>371657255</v>
       </c>
@@ -4445,8 +4673,11 @@
       <c r="L76" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>371657329</v>
       </c>
@@ -4481,8 +4712,11 @@
       <c r="L77" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>371657352</v>
       </c>
@@ -4517,8 +4751,11 @@
       <c r="L78" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>371657413</v>
       </c>
@@ -4553,8 +4790,11 @@
       <c r="L79" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>371657423</v>
       </c>
@@ -4589,8 +4829,11 @@
       <c r="L80" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>371657484</v>
       </c>
@@ -4625,8 +4868,11 @@
       <c r="L81" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>371657545</v>
       </c>
@@ -4661,8 +4907,11 @@
       <c r="L82" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>372094274</v>
       </c>
@@ -4697,8 +4946,11 @@
       <c r="L83" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>372243484</v>
       </c>
@@ -4733,8 +4985,11 @@
       <c r="L84" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M84" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>372243485</v>
       </c>
@@ -4769,8 +5024,11 @@
       <c r="L85" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>372243487</v>
       </c>
@@ -4805,8 +5063,11 @@
       <c r="L86" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M86" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
         <v>96</v>
       </c>
@@ -4827,7 +5088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>97</v>
       </c>
@@ -4859,8 +5120,11 @@
       <c r="L88" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
         <v>13</v>
       </c>
@@ -4892,8 +5156,11 @@
       <c r="L89" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>98</v>
       </c>
@@ -4925,8 +5192,11 @@
       <c r="L90" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>19</v>
       </c>
@@ -4958,8 +5228,11 @@
       <c r="L91" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>99</v>
       </c>
@@ -4967,7 +5240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>99</v>
       </c>
@@ -4976,6 +5249,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M93" xr:uid="{DE9C4EE4-A91E-4C42-82E3-87733447F5C3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
